--- a/ceftaz.xlsx
+++ b/ceftaz.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307C098F-BE67-AD44-93DD-5082703F50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A87A47-9FE1-EB48-B012-4D477403FFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="7220" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
+    <workbookView xWindow="23820" yWindow="7060" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,272 +441,192 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2.3809500000000002E-3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8.4600000000000009</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>5.9523800000000002E-3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.33</v>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10.5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1.190476E-2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8.33</v>
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2.3809520000000001E-2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8.5</v>
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>4.7619050000000003E-2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>9.5238100000000006E-2</v>
-      </c>
-      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7">
         <v>24</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>2.3809500000000002E-3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>9.1999999999999993</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>5.9523800000000002E-3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8.66</v>
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>1.190476E-2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8.66</v>
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>2.3809520000000001E-2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8.66</v>
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>4.7619050000000003E-2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>14.17</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>9.5238100000000006E-2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>24</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2.3809500000000002E-3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>9.58</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>5.9523800000000002E-3</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9.48</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>1.190476E-2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9.5</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>2.3809520000000001E-2</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10.5</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>4.7619050000000003E-2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>15.6</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>9.5238100000000006E-2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>24</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2.3809500000000002E-3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>5.9523800000000002E-3</v>
-      </c>
-      <c r="B21" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1.190476E-2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>2.3809520000000001E-2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>4.7619050000000003E-2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>14.5</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>9.5238100000000006E-2</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>2.3809500000000002E-3</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>5.9523800000000002E-3</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1.190476E-2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>2.3809520000000001E-2</v>
-      </c>
-      <c r="B29" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>4.7619050000000003E-2</v>
-      </c>
-      <c r="B30" s="2">
-        <v>13.66</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>9.5238100000000006E-2</v>
-      </c>
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
